--- a/allyter/evidence.xlsx
+++ b/allyter/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\ali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A9AD5-AD79-427E-A837-37EA963B287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FC219E-ACE0-43B1-B45E-A036996DC104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,45 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,13 +110,208 @@
   </si>
   <si>
     <t>c4e</t>
+  </si>
+  <si>
+    <t>4A4C29E020FFC4AC7DFB3FF5F30EA2B8185C71381A22C3EE84EA7FCB4E7AE7D8</t>
+  </si>
+  <si>
+    <t>rawalotcollection</t>
+  </si>
+  <si>
+    <t>9CC492DD7179579856414512ED95C7680B174FBC16F1BD19F7DEDFD46D6CF2DB</t>
+  </si>
+  <si>
+    <t>61300AE6CF8D5A02A39C591EEFF46859D15A3F1E8FDFDCB51CE7CDBF9F05347F</t>
+  </si>
+  <si>
+    <t>rawnft01</t>
+  </si>
+  <si>
+    <t>rawnft02</t>
+  </si>
+  <si>
+    <t>CD93DF5B01C507432375956FE05F9544A054E0DD79868CF3FFDEEB929070DE0F</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>juno1kxpqdh49d50an5c2k5rqfvqh7gmvp4fmmj5tfr7quk6lynl2feqqt9lmf4</t>
+  </si>
+  <si>
+    <t>5F585CCC578B28362964508565C8F85C6001860F6AD9F4191032B0516C7FFB1B</t>
+  </si>
+  <si>
+    <t>ibc/C3AA1C53938FF37D55CE9DF108F790184CEE61B9EDDDB180E21982EF7CD5D252</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>1B7C6B005B1B311C2916A6D6C86D639C849775B5A061049204EB2F64ED59F887</t>
+  </si>
+  <si>
+    <t>881B85F80B52B330101AF2EB99F99D5C489EF0158F6CADF546BA8CF0535EB4DE</t>
+  </si>
+  <si>
+    <t>ibc/2A0E84D0F4288BA15A27A7E60631CA7CF515FECF66F651DC278D7110AC35AD7D</t>
+  </si>
+  <si>
+    <t>rawnft07</t>
+  </si>
+  <si>
+    <t>ibc/51508E99D6EE0A70FED79BE917A41370C19F7A0340BA4421B5C65D5F56F336CE</t>
+  </si>
+  <si>
+    <t>rawnft09</t>
+  </si>
+  <si>
+    <t>ibc/2E30C4FE68277D6023E4A6BD1AA1F31B539A70879ABAE3E1C990E1416E4C09E1</t>
+  </si>
+  <si>
+    <t>rawnft10</t>
+  </si>
+  <si>
+    <t>ibc/3AF0D997DB63B197F1B4B3524568E7E5A8B594EB16D79A3C4DD387D0CFEFEA33</t>
+  </si>
+  <si>
+    <t>rawnft11</t>
+  </si>
+  <si>
+    <t>ibc/44315DB0F356AB56DFBB983DFBBB94085121E57988D3EF415985EAE401452114</t>
+  </si>
+  <si>
+    <t>rawnft12</t>
+  </si>
+  <si>
+    <t>ibc/4334D5829B3BE5D98356D32F6D258FC966D1DBBC236707DA8B20687557F89B85</t>
+  </si>
+  <si>
+    <t>rawnft03</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>AE0735617FCA096FBA580F13E825F39B02752425807E039077470BDE1142B9E1</t>
+  </si>
+  <si>
+    <t>78C5784B4D3AD9DF501AD3C28E5D701578D33366AD359B70C9B07CB40F6D4995</t>
+  </si>
+  <si>
+    <t>EC7474E5B5B842EDC498812E12D90C4C33AAC74FA590B8CAF4AB45C93889E489</t>
+  </si>
+  <si>
+    <t>F0E411AACC45EDCCA7576165AD2726AAD7D208C96856534BD81FF5133DFA87AE</t>
+  </si>
+  <si>
+    <t>66304F1CF90A0C3195F049A7BA0CE4B2FE2E6728399431EA3476FBE418EB6182</t>
+  </si>
+  <si>
+    <t>BF36CC9AFE4C171DFF6A10C900EB676B50B3D11BBAEB7E1B25688621702672D7</t>
+  </si>
+  <si>
+    <t>0445090E8127C83E2419C0DE0507CCD25E0C786C538015B261C3946C29FD29CA</t>
+  </si>
+  <si>
+    <t>8EEBD02F1592A115B0B477BFDBFF6454FFD761D04EE5DF4B253F46F6F425A27A</t>
+  </si>
+  <si>
+    <t>D3D01DFEB2944A3007F1154081769CB300D703B2A46656825D63BA72833830A9</t>
+  </si>
+  <si>
+    <t>F9FF457C0DCD69285F193545AF0C9D0D3D5BE98FB75485210E5CEE04BA26208A</t>
+  </si>
+  <si>
+    <t>3F0E6C24C16BA0659EBC1FC4CEE48CD824E60779B4C93E7E3A75E699D4BF40C3</t>
+  </si>
+  <si>
+    <t>DAD9E5B25C8199D5CCB7E5510153A450597841B483C6ACCE38A7D3484479B21C</t>
+  </si>
+  <si>
+    <t>A0004421AAB95CB03867AD7582E320C39FB2458E190907B603DD0C622F02B085</t>
+  </si>
+  <si>
+    <t>1E81D1C8F4E4607EE0B04266103AA8CB598DBC77F6A97792F0F9C02D113C20BB</t>
+  </si>
+  <si>
+    <t>5CA28DC15D2F0747224E9ECFFBAC1492B4361527C538A6D6081AC6F3E06D88C1</t>
+  </si>
+  <si>
+    <t>ECD2937687C2B777107754B7C8FE1262B4266D459BEA7F0206FED68744FCDEDA</t>
+  </si>
+  <si>
+    <t>01E30E8E0443D7F62CC4ED558B667BB35E188833C76AE595F80278A780F6395F</t>
+  </si>
+  <si>
+    <t>4F6ED1676BD771DA921D03C435E4D917EED569EBC80857EE81C23D3E9AF1E630</t>
+  </si>
+  <si>
+    <t>243CE8D567D52E20135118B7D3A34532FA9D61217527ABE051E6E21D0E9A5233</t>
+  </si>
+  <si>
+    <t>E734B195B96C1DCC9E26B78A09A58455221235A0FBE3021914B301F7913BDB1D</t>
+  </si>
+  <si>
+    <t>0F454AEE58B92CCA43CBDE84E59237A2E0426B785033A686D57E7EE97EA78AD1</t>
+  </si>
+  <si>
+    <t>5045BAC4EED6FAE42B43A3286F42920618E8CD515AECA96FF2136EB69A07E5B9</t>
+  </si>
+  <si>
+    <t>208F6BD5E552D7E5E10F5FF8451F1AC1240CA47B6A754D7487B41C46B71E6AD2</t>
+  </si>
+  <si>
+    <t>5F828AEE859845689C3FDABE6D31222023078A835D86B57401B4EB7A9AFCFF73</t>
+  </si>
+  <si>
+    <t>0AC684CC8150EF1810A37DECD22E1ADC62541ABCDCDADED2109CFAA55DEF507A</t>
+  </si>
+  <si>
+    <t>8FB17F1A80A74A524BD454C78A8E212BD30CE410B1048ACF56CB9451562B3D21</t>
+  </si>
+  <si>
+    <t>5376368C9183EDF73176E9DB63001665349C002C488E41AEF265E911449B46FC</t>
+  </si>
+  <si>
+    <t>6DFAD859554891E045BCB13915A828FD795D9790EF340DA5133FBEB8915847B3</t>
+  </si>
+  <si>
+    <t>7B84B7FDF6BE220A47B675F3E48A677B047AEF074B9570A387A914F511B4CCAA</t>
+  </si>
+  <si>
+    <t>9102FC808ADE56F0B0AB9903698F30D82D9F109D41E3A98AA955E744501841BE</t>
+  </si>
+  <si>
+    <t>40627BD660DA15398566FA3FE929231B5F9661A20F8C142C3FC2E978D2F92C6C</t>
+  </si>
+  <si>
+    <t>0765AC468082F75F85F2CB0ED2F1A7E0236C8989857AEE39E2B1298644C129BC</t>
+  </si>
+  <si>
+    <t>222DE22866F73D9E9771EA0B76ADC68FA167AB2625DD6AF642B418E42CE93FA4</t>
+  </si>
+  <si>
+    <t>35915636D8662EF78ED762BD268C5AE183A13E89CFB74C750567BF465290321B</t>
+  </si>
+  <si>
+    <t>D3C95F421A59805457F980DBA08219BB8B2A2C48106DB6DCE72727236688AE68</t>
+  </si>
+  <si>
+    <t>CB7404F2036C264B97FAD28E805EC87A08B10570A9ED32766696E788D12CA567</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +324,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,10 +382,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,9 +407,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4D160BBF-4A5A-4E06-94EE-5ABF421266B6}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{25FBF55E-A14F-451E-846C-56E134FAC73B}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{2A79DE05-07BE-4635-88E6-F624F88ACEC2}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{F54168C1-28B1-4D2D-8F76-C01E583880F8}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{A0A976C0-A13F-492C-A2DA-C42F4F8CBC64}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{EF1130B9-AEB4-42C3-9DE8-4C02F315AFBC}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{6EC64DDC-7C2A-4225-AC07-29B5A4DBF079}"/>
+    <cellStyle name="Normal 9" xfId="8" xr:uid="{4D716B35-7374-4857-B41D-3873470970CF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,54 +775,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +837,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -627,18 +849,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +875,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -663,18 +887,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +913,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,18 +925,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +951,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,18 +963,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -759,9 +987,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -779,20 +1009,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -805,9 +1049,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,35 +1071,113 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>61</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -871,35 +1195,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>65</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -917,35 +1257,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>69</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -963,35 +1319,88 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,70 +1418,67 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>77</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1090,66 +1496,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1688,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1313,21 +1705,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1745,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1356,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1367,16 +1772,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1796,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1405,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1416,16 +1823,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1847,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1454,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1465,16 +1874,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1898,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1515,16 +1926,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1950,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,18 +1962,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1988,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1585,18 +2000,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/allyter/evidence.xlsx
+++ b/allyter/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\ali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FC219E-ACE0-43B1-B45E-A036996DC104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE5C95-0714-459B-85D0-435C614AD17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TxHash</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>CB7404F2036C264B97FAD28E805EC87A08B10570A9ED32766696E788D12CA567</t>
+  </si>
+  <si>
+    <t>7B60F9194BA6D26830951F6DED4859EB050FB2891719BCEC108F1465D3F1F6C5</t>
+  </si>
+  <si>
+    <t>F8F7D313F729B5562DB987A90A381CBDFE4FBFB33B45D370FC155D14316CE8DB</t>
+  </si>
+  <si>
+    <t>60CA2CBF6861A71DA1C24D5319A44BC8AEA544AD931E401234C3D004CE9F31D1</t>
+  </si>
+  <si>
+    <t>164749B41D64B9A5D8081595AE3C075B4889F0CE678FFE596D33F26CB54A1169</t>
   </si>
 </sst>
 </file>
@@ -408,35 +420,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="8"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,7 +1488,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1554,7 +1566,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1568,12 +1582,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1602,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1602,12 +1618,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/allyter/evidence.xlsx
+++ b/allyter/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\ali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE5C95-0714-459B-85D0-435C614AD17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457ED10D-4AB5-4F0E-9B43-C62350B6F146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -317,6 +312,24 @@
   </si>
   <si>
     <t>164749B41D64B9A5D8081595AE3C075B4889F0CE678FFE596D33F26CB54A1169</t>
+  </si>
+  <si>
+    <t>4363D104715C3A7F896F85C2594CDC30234085CE3E695065A78297AC1758DCC4</t>
+  </si>
+  <si>
+    <t>027FCC2C3E3D7103ECE09D64476C7E28C8501EA5EDC400CD6549551548FEF755</t>
+  </si>
+  <si>
+    <t>DE4CFF4EB017B8001816EF9ED3ED5C68A80A9002DC51D4AAC39D5DAA5F40A394</t>
+  </si>
+  <si>
+    <t>312424FE57D266775AD67F57BA0D9BC6F3CC7BB155FD224544FBF081BF51A9F8</t>
+  </si>
+  <si>
+    <t>F13D0DCFCFDA11218BA156FFCE2B51495913F1C3F71330B425E40E25907B20F6</t>
+  </si>
+  <si>
+    <t>2CAB7F806EB9E2398543C7DF5C02898081941BEF58010D00FED77C99F4ED5EC5</t>
   </si>
 </sst>
 </file>
@@ -787,54 +800,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +874,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,8 +931,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -899,10 +950,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,8 +969,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -937,10 +988,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,15 +1007,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,27 +1026,51 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1016,55 +1091,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>60</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,48 +1215,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1140,55 +1277,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>68</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,55 +1339,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>72</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,55 +1438,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>75</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>76</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,232 +1516,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1579,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1581,6 +1594,78 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -1595,15 +1680,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,80 +1703,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84A63E0-111E-4D66-B480-7C182B26E52E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1721,32 +1768,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1777,27 +1824,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1828,27 +1875,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1879,27 +1926,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1931,27 +1978,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1978,18 +2025,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2016,18 +2063,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
